--- a/data/input/Forms2.xlsx
+++ b/data/input/Forms2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\abdel\OneDrive\Bureau\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F923510-D0F8-44E9-915E-2206714A4DBB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65A6A2B4-610E-4EDD-A1B8-5A74168952A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1125" yWindow="1125" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>FomsName</t>
   </si>
@@ -37,6 +37,12 @@
   </si>
   <si>
     <t>https://forms.office.com/Pages/ResponsePage.aspx?id=DQSIkWdsW0yxEjajBLZtrQAAAAAAAAAAAAN__4uyZYJUQkNTQlZaTkg3NVFVMUlTRjJFT0tBNDJTVS4u</t>
+  </si>
+  <si>
+    <t>issam</t>
+  </si>
+  <si>
+    <t>https://forms.office.com/Pages/ResponsePage.aspx?id=DQSIkWdsW0yxEjajBLZtrQAAAAAAAAAAAANAAS6xmZ1UM09SSzNWSTdSMjFQUUMzWkFZU0U2VDZLSi4u</t>
   </si>
 </sst>
 </file>
@@ -368,10 +374,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -396,6 +402,14 @@
         <v>3</v>
       </c>
     </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1" xr:uid="{8EAF2AF2-9B64-44AD-A5F8-A0280A64D33F}"/>
